--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos doces.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos doces.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Biscoito Passatempo Bichos 130g Chocolate</t>
+          <t>Biscoito Porto Alegre 300g Champagne</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf83af00-5ae8-4978-99c5-d1462143946a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cb36037-9deb-4835-960f-d108ffcc8596.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898950172150</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rosquinha Panco Coco 500g</t>
+          <t>Biscoito Porto Alegre Champagne 150g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aaf5aae6-1061-4196-8fa9-599311f4f49f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f915040-d202-48a4-802b-5d4b439a10e0.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898950172150</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Bauducco 140g Chocolate</t>
+          <t>Rosquinha De Milho Verde Panco 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/563d315d-858f-492f-8404-12e10725af4f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48dc59fa-eb4d-426f-9a47-e53ee50ddb7f.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891203050663</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Biscoito Marilan Maizena Pacote 350g</t>
+          <t>Biscoito Panco Maria 200g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72175fa4-af88-46d5-a3b5-502eb6b82059.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28b389ad-ff78-42d3-95ab-67b2c1e4bf73.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891203058133</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biscoito Trakinas 126gr Morango</t>
+          <t>Biscoito Recheado Visconti 125g Chocolate</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/795a17cb-e97d-4b1b-83e6-d4ecfd7a8538.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c98668be-bca4-4758-9d1f-99c7478210d4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891962036083</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Visconti 125g Chocolate</t>
+          <t>Biscoito Recheado Visconti 125gr Morango</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c98668be-bca4-4758-9d1f-99c7478210d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826d6bc4-54c3-40c3-abff-37710177ae0c.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891962036090</t>
         </is>
       </c>
     </row>
@@ -623,7 +658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360gr Maizena</t>
+          <t>Biscoito Rech Nestle 140g Nescau</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -633,7 +668,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0efc12c-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d402bf41-2b51-42f3-8bee-dfd17897c76c.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891000089279</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Trakinas 126gr Chocolate/morango</t>
+          <t>Pao De Mel Barion 90gr Cob Choc</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88f8b21e-0c2f-4ae3-aec7-f54acc0832e5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bac1298d-83cb-411c-bee8-880596e33e9f.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896018209251</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Trakinas 126g Chocolate/ Chocolate Branco</t>
+          <t>Rosquiha Panco De Baunilha 500g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cb98da2a-dbb8-4078-a829-3ce12965d7c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762749b9-67fc-492f-b7a3-48031cfe29b9.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891203021137</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Bauducco 140g Morango</t>
+          <t>Rosquinha Panco Coco 500g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5567e906-901a-47c5-81a3-3d37e6219ad8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aaf5aae6-1061-4196-8fa9-599311f4f49f.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891203021168</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Mousse Adria 130g Meio Amargo</t>
+          <t>Rosquinha Panco 500g Choc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f8d09fb-3247-4d29-983b-de506c2c55dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0709f4c8-35b0-4b0e-b8f0-1633ddb05044.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891203021168</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Bauducco 140g Chocolate/avelã</t>
+          <t>Rosquinha De Nata Panco 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a6a1f5a-2e55-45c3-93b9-4b5f315da059.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26bd15a7-6f30-4166-a0ee-52e5a54a50d4.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891203021205</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Bauducco 140g Triplo Choc</t>
+          <t>Biscoito Panco Doce 500g Sequilhinho</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4cb02b5-f648-4193-be92-292ed806fbd0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f720ef80-f200-4b7e-b670-4f23e5ca3ccb.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891203021250</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Visconti 125gr Morango</t>
+          <t>Biscoito Panco Corn Drop 500g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826d6bc4-54c3-40c3-abff-37710177ae0c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b803abea-9d76-4130-ba28-efc2fd0f3a75.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891203021700</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella 350g Maizena Tradicional</t>
+          <t>Rosquinha De Coco Panco Tica 500g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2df87832-ecd6-4184-b818-1bb1f91bedbc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa51fd6a-3605-4fe1-bcf9-34a96caed982.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891203021205</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Biscoito Passatempo Sem Recheio 150g Leite</t>
+          <t>Bisc Wafer Stick Look 55g Chocolate</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff57c7ec-ff53-4089-ae30-f68f7fcbc764.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/751fc7f5-54b4-4194-81a0-6ff90a24ce50.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891340303233</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pao De Mel Bauducco 30g</t>
+          <t>Biscoito Champ Bauducco 150g Acucar Cristal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/417fe186-a027-47f5-aaaa-ce2f60fae984.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4bf820-775d-43fd-8450-04b164fee62c.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891962035451</t>
         </is>
       </c>
     </row>
@@ -920,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Biscoito Bauducco Vitaminado 170g Maizena</t>
+          <t>Polvilho Sabor Arte Tradicional 80g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -930,7 +1020,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e556a4b-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/802dfc1f-e5c5-46cb-aec5-c49eec4d5a7c.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898905879073</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Biscoito Rech Adria Mousse 130g Limão Co Chocolate</t>
+          <t>Biscoito Wafer Nestle 110g Prestigio</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce5297d6-d0eb-440f-8eb2-1edc83590360.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cb1053a-2c75-4b65-a32b-a2d37cd80a8d.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891000077924</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Biscoito Marilan 350g Leite</t>
+          <t>Newafer Piraque 100g Limao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a6f6f11-be60-42b1-8014-df39745da76a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bafe50c2-4148-410a-8e0c-d1733202830e.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896024726827</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Chocolícia Chocolate 132g</t>
+          <t>Biscoito Bauducco Gulosos 140g Morango</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99f76ca2-2237-42c9-a1e0-0f173a0699fe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3c252b-981e-49d8-9768-1954f2534069.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891962008325</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Biscoito Polvilho Biscoitone 100g</t>
+          <t>Biscoito Bauducco Gulosos 140g Chocolate</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 3,59</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a125e73-aa00-406f-9018-1e0969f5712b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22eedc69-e701-4b51-8dda-7d1225619cd2.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891962008387</t>
         </is>
       </c>
     </row>
@@ -1068,6 +1183,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8dc4acff-b52d-4f85-8dd9-f8154d22c354.jpg</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891962026138</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Biscoito Adria Torta 140g Limão</t>
+          <t>Rosquinha De Leite Panco 500g</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e0a6ae8-e2fa-4e5a-88a9-bd32cf48dbfc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0622ef12-c5a5-4f81-b6a0-b0412fc733c6.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891203021151</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Biscoito Nestle 90g Negresco</t>
+          <t>Biscoito Renata 360gr Maizena</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10e56d8d-9c42-42fe-b93c-4725ad910059.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0efc12c-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896022205218</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Mousse Adria 130g Ao Leite</t>
+          <t>Biscoito Renata 360gr Maria</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f05bf0f4-30f7-4435-b7b9-6932dc8ec224.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0d5c95b-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896022205218</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Biscoito Adria Plugados Quadr 130g Choc</t>
+          <t>Biscoito Renata 360g Coco</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4cafb12-560e-4a0c-aa8f-327639ad22cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/006219aa-5d26-4adb-abc4-815a4bad5c80.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896022205188</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Biscoito Panco 400g Maria</t>
+          <t>Biscoito Renata 360gr Leite</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3666dbbd-7dc3-470b-b402-b29571341454.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96e54e7a-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896022205225</t>
         </is>
       </c>
     </row>
@@ -1230,6 +1375,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4a99f7e-c671-46df-b365-9c7e857da8b7.jpg</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891962035529</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Biscoito Cristal Vitarella Delicitá Pacote 414g Doce</t>
+          <t>Biscoito Wafer Visconti 120g Morango</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8bd7fc6-55e9-4b86-97fc-8a99c879ce24.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ccc61bd-fe9e-48ad-a9fd-e307fbcb899e.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891962035536</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Biscoito Bauducco Gulosos 140g Morango</t>
+          <t>Biscoito Passatempo Sem Recheio 150g Leite</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce3c252b-981e-49d8-9768-1954f2534069.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff57c7ec-ff53-4089-ae30-f68f7fcbc764.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891000051443</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rosquinha De Coco Panco Tica 500g</t>
+          <t>Biscoito Wafer Bauducco 140g Chocolate/avelã</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 8,59</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa51fd6a-3605-4fe1-bcf9-34a96caed982.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8a6a1f5a-2e55-45c3-93b9-4b5f315da059.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891962036991</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Biscoito Bauducco Gulosos 140g Chocolate</t>
+          <t>Biscoito Wafer Bauducco 140g Triplo Choc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22eedc69-e701-4b51-8dda-7d1225619cd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4cb02b5-f648-4193-be92-292ed806fbd0.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891962036991</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Oreo 90gr Original</t>
+          <t>Newafer Piraque 100g Choc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eb834c7f-c6ee-496a-88c9-8fbba77d930a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/293111de-d010-46e5-a7d5-43a8f74c903c.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896024726582</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rosquinha Panco 500g Choc</t>
+          <t>Biscoito Recheado Oreo 90g Chocolate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0709f4c8-35b0-4b0e-b8f0-1633ddb05044.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d202c1d1-1f83-4624-9f58-d405e8f99e71.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891000376843</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Roladinho Goiaba Piraque 75g</t>
+          <t>Biscoito Sequilhinho Panco 200g</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 5,39</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f10113ed-c94b-4d3d-b66f-14fb8eb2a51c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f53b079-9dae-4c84-b539-d882dda44f71.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7891203021250</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Biscoito Mini Oreo 35g Baunilha</t>
+          <t>Recheadinho Bauduco Brigadeiro 104g</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6454d85-73e9-4eaf-9e59-f43c85c5d57a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f149ab33-8ee1-4b3a-b407-35c5a37b3e68.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7891962050089</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella 350g Maria Tradicional</t>
+          <t>Recheadinho Bauduco 104g Chocolate</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05563e13-9c4c-45a5-b4cf-6cd11b75d21a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de12568a-8753-4ff7-87b5-aa46604618b0.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7891962050072</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella Maizena 350g Leite</t>
+          <t>Recheadinho Bauducco 112g Goiaba</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14164f89-c56b-4874-8cbc-2b8186894777.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f917af9a-bf67-4b74-825a-3cb64d4a1795.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891962026305</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Biscoito Passatempo 150g Leite Maltado</t>
+          <t>Biscoito Passatempo Bichos 130g Chocolate</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/115c7fa0-3412-439e-a24b-d32f2eb57c6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf83af00-5ae8-4978-99c5-d1462143946a.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891000241356</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Biscoito Tortinhas Adria 140gr Choc</t>
+          <t>Biscoito Passatempo Bichos 130g Mor</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 3,69</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2efbb4b-a1c3-4fbf-bb66-6cc8667cb63d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9fcdf99-e50a-4e7c-81ab-6d54814d05c8.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7891000241295</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Biscoito Vitarella 350g Maizena Chocolate</t>
+          <t>Biscoito Adria Plugados Quadr 130g Choc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f663ce9-cd93-439d-95bd-3bedc26fd50e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4cafb12-560e-4a0c-aa8f-327639ad22cf.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896085076183</t>
         </is>
       </c>
     </row>
@@ -1608,6 +1823,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04016357-f01f-4863-ad43-620618350e20.jpg</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896085076190</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Biscoito Piraque 80g Leite Maltado Coberto</t>
+          <t>Tubetes Snack Barion 44gr Choc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16b27d6c-7e09-48d9-9bc3-02c7afa2ee88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/855e46c1-f812-492d-925e-b81627167a87.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896018211254</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rosquinha De Nata Panco 500g</t>
+          <t>Tubetes Snack Barion 44gr Paçoca</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/26bd15a7-6f30-4166-a0ee-52e5a54a50d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/541cbc0a-12f9-4542-b4f0-ebb469103f39.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896018210646</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Biscoito Rech Baunilha 144g Oreo</t>
+          <t>Roladinho Goiaba Piraque 75g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,39</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e6a0b20-d4c8-4c8a-a43f-4bd045e75182.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f10113ed-c94b-4d3d-b66f-14fb8eb2a51c.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896024760135</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Biscoito Panco Maria 200g</t>
+          <t>Biscoito Adria Torta 140g Limão</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28b389ad-ff78-42d3-95ab-67b2c1e4bf73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e0a6ae8-e2fa-4e5a-88a9-bd32cf48dbfc.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896085086625</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360gr Leite</t>
+          <t>Biscoito Tortinhas Adria 140gr Choc</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96e54e7a-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2efbb4b-a1c3-4fbf-bb66-6cc8667cb63d.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896085086632</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Dadinho 90g Cremoso</t>
+          <t>Biscoito Tortinhas Adria 140gr Choc Branco</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e88851d8-fc19-49b4-9883-5c77bec4b70a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9c42b68-05b9-4d65-a73b-691990f45835.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896085086632</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Visconti 120g Morango</t>
+          <t>Biscoito Tortinha Adria 140g Cho/avela</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ccc61bd-fe9e-48ad-a9fd-e307fbcb899e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d167301c-18ab-4909-9194-e8c1d484f272.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896085086601</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bisc Wafer Stick Look 55g Chocolate</t>
+          <t>Biscoito Wafer Bono 110g Limao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/751fc7f5-54b4-4194-81a0-6ff90a24ce50.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b3436ad-b6eb-4c1f-b4a8-097ac86d1f5b.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891000329207</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Biscoito Panco Doce 500g Sequilhinho</t>
+          <t>Biscoito Rech Nestle 140gr Prestigio</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f720ef80-f200-4b7e-b670-4f23e5ca3ccb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c810a2c-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891000089231</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Biscoito Tortinha Adria 140g Cho/avela</t>
+          <t>Polvilho Sabor Arte Queijo 80g</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d167301c-18ab-4909-9194-e8c1d484f272.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e395793-0f8a-45eb-b37f-f9b560df9fd5.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898905879097</t>
         </is>
       </c>
     </row>
@@ -1892,7 +2162,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bisc Maizena Liane 330g</t>
+          <t>Wafer Atrevidos Look Itamaraty 55gr</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1902,7 +2172,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41f30753-3e05-4895-b379-b08a161ef571.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41e6aaf8-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891340303615</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pao De Mel Panco 200gr</t>
+          <t>Biscoito Piraque 80g Leite Maltado Coberto</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b461dd3e-a2bb-47cd-8299-50605725599a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16b27d6c-7e09-48d9-9bc3-02c7afa2ee88.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896024760289</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pao De Mel Panco 500gr</t>
+          <t>Bisc Polvilho Palito Minastop 80gr Chimi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/678b8311-2573-41e3-a10f-9f5a535237be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36219fe9-156d-4480-be98-74ffa7773214.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7899996600850</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Biscoito Prodasa 400g Coquinho</t>
+          <t>Bisc Polvilho Argola Minastop 90g Parme</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c8b866c-495c-4c5d-804f-c090daee073a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5d10d3f-2026-4d71-8c15-c5be974dc542.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7899996600386</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Biscoito Piraque 132g Leite Maltado E Coco</t>
+          <t>Bisc Polvilho Argola Minastop 90g Trad</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e13796f-a82e-40f1-87e8-a7e4c88c35fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/542b4965-539f-46dd-9862-25a608fcd94b.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7899996600362</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Polvilho Sabor Arte Tradicional 80g</t>
+          <t>Bisc Polvilho Argolao Minastop 160g Parm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/802dfc1f-e5c5-46cb-aec5-c49eec4d5a7c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/821f03f6-0dcd-4fe9-9d33-90651a6d3334.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7899996600393</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Nestlé Calipso 130g</t>
+          <t>Bisc Polvilho Argolao Minastop 160g Trad</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed3eabf3-47d9-4910-bb37-bcc4504d036c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8325eac2-cf90-455d-b552-515a362900ba.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7899996600362</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sequilho Seven Boys 400g Tradicional Com Leite</t>
+          <t>Bisc Polvilho Palito Minastop 80g Parme</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/192e9c98-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9564669-2362-4f5e-b1b3-22dae19b1f7f.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7899996600867</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Biscoito Porto Alegre Champagne 150g</t>
+          <t>Bisc Polvilho Palito Minastop 80g Trad</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f915040-d202-48a4-802b-5d4b439a10e0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/638fa3c7-b7ed-4726-85bb-c4627682e6d6.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7899996600867</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Biscoito Tortinhas Adria 140gr Choc Branco</t>
+          <t>Biscoito Polvilho Minas Top 80g Sem Lactose</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9c42b68-05b9-4d65-a73b-691990f45835.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/473557e2-bf7b-460f-82a3-2cf937fa50c1.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7899996600355</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Biscoito Liane 330g Leite</t>
+          <t>Wafer Look Itamaraty 55g Napolitano</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 5,59</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6de5db0e-99ba-4577-88a2-21291c2ba2e1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7d3a5eb-a784-47e4-a209-41c73dfc262c.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891340365248</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360g Coco</t>
+          <t>Biscoito Wafer Bis Piraque 100,8g Chocolate</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/006219aa-5d26-4adb-abc4-815a4bad5c80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a022ee06-7643-4156-8639-14cb5b40264b.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896024760807</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rosquinha De Milho Verde Panco 500g</t>
+          <t>Biscoito Vitarella 350g Maizena Tradicional</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48dc59fa-eb4d-426f-9a47-e53ee50ddb7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2df87832-ecd6-4184-b818-1bb1f91bedbc.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896213006396</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Biscoito Piraque Maizena 175g</t>
+          <t>Biscoito Vitarella 350g Maria Tradicional</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5277a8b8-42a7-41a9-84ba-b16431af6e9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05563e13-9c4c-45a5-b4cf-6cd11b75d21a.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896213006358</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Biscoito Tostines Maçã E Canela 160g</t>
+          <t>Biscoito Recheado Negresco Nestle 57g Fininho</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0aa617b5-d8b7-41b5-9ee8-2a1e92a0e388.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/168c4f62-a172-4f0c-91d1-54710c53752d.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7891000357972</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Negresco Nestle 57g Fininho</t>
+          <t>Bisc Broinha Coco Liane 330g</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/168c4f62-a172-4f0c-91d1-54710c53752d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94f3c1c1-fd77-48fe-80b8-c348a139830e.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896080861098</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Biscoito Coco Nestlé Tostines 160g</t>
+          <t>Bisc Broinha Leite Liane 330g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18974ffd-7c48-47d2-a530-6e4570800dd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e60f958e-c82d-4761-b9ba-d9e38f89b499.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896080861074</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Biscoito Renata 360gr Maria</t>
+          <t>Biscoito Broinha Milho Liane 330g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0d5c95b-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd3253ae-07e2-450b-bc7c-f4c3de36837e.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896080861081</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Biscoito Sequilhinho Panco 200g</t>
+          <t>Biscoito Liane 330g Coco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f53b079-9dae-4c84-b539-d882dda44f71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c431723-216d-4007-a13d-4c5c5703c17c.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896080860145</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Biscoito Trakinas 126g Tutti Frutti</t>
+          <t>Biscoito Liane 330g Leite</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72e9a3b8-4726-4010-bce7-751b450db4cf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6de5db0e-99ba-4577-88a2-21291c2ba2e1.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896080861074</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Biscoito Povilho Cassini 100g Doce Tradicional</t>
+          <t>Bisc Maizena Chocolate Liane 330</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f24a2a26-0a0b-4adc-8ed3-c5305fc3cb61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5026d07d-dc12-4ced-a2b1-4aebc3528a4b.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896080862149</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Minueto 81g Chocolate</t>
+          <t>Bisc Maizena Liane 330g</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96e4d6c3-bbc5-447f-a7f5-6e7a041835d1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41f30753-3e05-4895-b379-b08a161ef571.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896080862149</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Recheadinho Bauducco 112g Goiaba</t>
+          <t>Bisc Maria Liane 330g</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f917af9a-bf67-4b74-825a-3cb64d4a1795.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4fe62ca-45cb-4521-b7ca-999a9de78a27.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896080862149</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bisc Polvilho Argola Minastop 90g Trad</t>
+          <t>Biscoito Nata Liane 330g</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/542b4965-539f-46dd-9862-25a608fcd94b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ced062c-8431-4c3c-acd1-e742e970560a.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896080864143</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Minueto 81g Brigadeiro</t>
+          <t>Biscoito Recheado Kids Brigadeiro Liane 115g</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9696dc7c-9dcd-41a7-9e62-4da62c811074.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a7e5965-20b6-4328-be05-6695d0caca8e.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896080898735</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Recheadinho Bauduco 104g Chocolate</t>
+          <t>Biscoito Recheado Morango Liane 115g</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de12568a-8753-4ff7-87b5-aa46604618b0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/535b40c8-22de-48c8-b49c-4ef9e3d6dbca.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896080898711</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bisc Maria Liane 330g</t>
+          <t>Bisc Rech Limao Siciliano Liane 115g</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d4fe62ca-45cb-4521-b7ca-999a9de78a27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75e899e5-2b8f-4fd9-bb23-f735090879c9.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896080898575</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Biscoito Sortidos Tica 500gr</t>
+          <t>Bisc Broinha Maizena Liane 330g</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36871850-d7a5-4157-b005-b2aa1458fc35.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0454fe88-9ce7-455d-be9d-c52df54451c6.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896080861111</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Biscoito Marilan 350g Manteiga</t>
+          <t>Biscoito Passatempo 150g Leite Maltado</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd405b13-9003-47df-a295-1ac22601bde5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/115c7fa0-3412-439e-a24b-d32f2eb57c6d.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891000365267</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Minueto 81g Limao</t>
+          <t>Biscoito Vitarella 350g Maizena Chocolate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cbd9171-1099-4d7d-8f14-00f5a92f068d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f663ce9-cd93-439d-95bd-3bedc26fd50e.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896213006419</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Minueto 81g Morango</t>
+          <t>Biscoito Vitarella Maizena 350g Leite</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b6eb26b-9d9c-4705-9a8a-e1cd6cf31a52.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14164f89-c56b-4874-8cbc-2b8186894777.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896213006426</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Nestle 110g Prestigio</t>
+          <t>Biscoito Wafer Liane 90g Brigadeiro De Panela</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7cb1053a-2c75-4b65-a32b-a2d37cd80a8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de91b27-56c5-43b7-a780-c48af0ab1367.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7896080880310</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Bono 110g Limao</t>
+          <t>Biscoito Wafer Liane 90g Chocolate</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b3436ad-b6eb-4c1f-b4a8-097ac86d1f5b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f3a0c2f-a3ec-4cc5-bc3a-18031d74d391.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896080880341</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Biscoito Panco Corn Drop 500g</t>
+          <t>Biscoito Wafer Liane 90g Chocolate Com Avela</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b803abea-9d76-4130-ba28-efc2fd0f3a75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/301db573-46d9-410a-92c3-f402ae6d016c.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896080880372</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rosquinha De Leite Panco 500g</t>
+          <t>Biscoito Wafer Liane 90g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0622ef12-c5a5-4f81-b6a0-b0412fc733c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0916a3f7-bba6-41e4-83f1-8e93270bf214.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896080880365</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Biscoito Bono 90g Morango</t>
+          <t>Biscoito Wafer Liane 90g Mousse De Limão</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 3,59</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f260827-76b6-4016-89df-eed6b4fe83af.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b54d78-fb78-4fb2-993a-84471cab71d6.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896080880327</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Biscoito Rech Nestle 140g Nescau</t>
+          <t>Biscoito Wafer Liane 90g Napolitano</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d402bf41-2b51-42f3-8bee-dfd17897c76c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/220e6e4f-41ab-4e3f-8f51-f3c0eada5b54.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896080880334</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rosquiha Panco De Baunilha 500g</t>
+          <t>Biscoito Nestle 90g Negresco</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,59</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762749b9-67fc-492f-b7a3-48031cfe29b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10e56d8d-9c42-42fe-b93c-4725ad910059.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7891000376768</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Oreo 90g Chocolate</t>
+          <t>Chocolate Wafer Hanuta Ferrero 22g Creme De Avela</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d202c1d1-1f83-4624-9f58-d405e8f99e71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef030991-8ae8-4045-b3d4-c3e55037db56.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7898024398752</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Biscoito Passatempo Bichos 130g Mor</t>
+          <t>Biscoito Rech Bono 109g Chocolate</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 3,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9fcdf99-e50a-4e7c-81ab-6d54814d05c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef9dec62-a300-4c44-ac09-4f14cc60e2b1.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7891000321164</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Liane 90g Mousse De Limão</t>
+          <t>Biscoito Piraque 132g Leite Maltado E Coco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b54d78-fb78-4fb2-993a-84471cab71d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e13796f-a82e-40f1-87e8-a7e4c88c35fa.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896024760289</t>
         </is>
       </c>
     </row>
@@ -2999,7 +3474,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bisc Polvilho Palito Minastop 80g Trad</t>
+          <t>Biscoito Sol Dolce Plus 360g Doce De Leite</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3009,7 +3484,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/638fa3c7-b7ed-4726-85bb-c4627682e6d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ec25cd-53d7-425f-a526-17acd713316a.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896005210567</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Biscoito Porto Alegre 300g Champagne</t>
+          <t>Biscoito Doce Sol Dolce Plus 360g Torta De Maçã</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2cb36037-9deb-4835-960f-d108ffcc8596.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b07d3d52-4f6b-4ee1-af14-acbcc415ac22.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896005210420</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Liane 90g Chocolate</t>
+          <t>Bisc Wafer Bauducco Maxi 104g Choco E Cream</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 4,59</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f3a0c2f-a3ec-4cc5-bc3a-18031d74d391.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca1e4904-92bf-4ed3-900a-f5c427831940.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7891962071176</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Biscoito Rech Oreo 144g Chocolate</t>
+          <t>Biscoito Piraque Maizena 175g</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8dc6004-59f5-4741-9060-e5b09e513be8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5277a8b8-42a7-41a9-84ba-b16431af6e9b.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896024761651</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Biscoito Recheado Mousse Adria 130g Chocolate Com Morango (leve 5 Por R$10)</t>
+          <t>Biscoito Nestle Choco Biscuit 78g Ao Leite</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f911242-fc71-4446-9cac-4f1f18b6842a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c7ad55c-9c0c-42a2-b1a9-7664d0999f7e.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7891962056500</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3634,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Polvilho Sabor Arte Queijo 80g</t>
+          <t>Biscoito Tostines 150g Especiarias</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3144,7 +3644,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e395793-0f8a-45eb-b37f-f9b560df9fd5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e19917a-f1ef-4036-bf04-bcd77a65793b.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7891000397961</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Newafer Piraque 100g Limao</t>
+          <t>Biscoito Recheado Nestlé Charge 130g</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bafe50c2-4148-410a-8e0c-d1733202830e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66549726-1e76-46bc-9798-f462ef6d3702.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7891000419939</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Nestle 110g Galak</t>
+          <t>Biscoito Wafer Halloween Panco 112g Frutas Vermelhas</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0300e13f-bc56-4051-a465-f82ff09fd8f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3209644c-8ed3-49f5-a706-1ef5d0ffb937.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7891203061560</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Chocolate Wafer Hanuta Ferrero 22g Creme De Avela</t>
+          <t>Biscoito Recheado Estelar Panco 140g</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef030991-8ae8-4045-b3d4-c3e55037db56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8239b327-1c99-4521-950d-19389b835a43.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7891203061485</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Biscoito Champ Bauducco 150g Acucar Cristal</t>
+          <t>Biscoito Piraque 132g Leite Maltado</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4bf820-775d-43fd-8450-04b164fee62c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b419f7b-c731-47f5-b7ea-0c7a73fdbea5.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896024760289</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3794,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tubetes Snack Barion 44gr Choc</t>
+          <t>Rosquinha De Coco Panco 80g Cobertura Chocolate</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3279,1600 +3804,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/855e46c1-f812-492d-925e-b81627167a87.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Biscoito Sagra Beijo De Mel 250g Glaceado</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88279290-c638-4112-b36a-329535e687d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Liane 90g Chocolate Com Avela</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/301db573-46d9-410a-92c3-f402ae6d016c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Newafer Piraque 100g Choc</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/293111de-d010-46e5-a7d5-43a8f74c903c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Recheadinho Bauduco Brigadeiro 104g</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f149ab33-8ee1-4b3a-b407-35c5a37b3e68.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Bisc Maizena Chocolate Liane 330</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5026d07d-dc12-4ced-a2b1-4aebc3528a4b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Biscoito Rech Nestle 140gr Prestigio</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c810a2c-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Bisc Broinha Leite Liane 330g</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e60f958e-c82d-4761-b9ba-d9e38f89b499.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Pao De Mel Barion 90gr Cob Choc</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bac1298d-83cb-411c-bee8-880596e33e9f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Bisc Polvilho Palito Minastop 80g Parme</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9564669-2362-4f5e-b1b3-22dae19b1f7f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Biscoito Rech Bono 109g Chocolate</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef9dec62-a300-4c44-ac09-4f14cc60e2b1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Biscoito Nata Liane 330g</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 5,59</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ced062c-8431-4c3c-acd1-e742e970560a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Biscoito Nestle Choco Biscuit 78g Ao Leite</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c7ad55c-9c0c-42a2-b1a9-7664d0999f7e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Oreo 144g Milshake Morango</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6102c51-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Bolacha Delícia Coquinho 250g</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e1766c6-121e-49d2-96f4-16d3ff8e8dec.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Bisc Broinha Maizena Liane 330g</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0454fe88-9ce7-455d-be9d-c52df54451c6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Liane 90g Brigadeiro De Panela</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9de91b27-56c5-43b7-a780-c48af0ab1367.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Kids Brigadeiro Liane 115g</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a7e5965-20b6-4328-be05-6695d0caca8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Liane 90g Napolitano</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/220e6e4f-41ab-4e3f-8f51-f3c0eada5b54.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Biscoito Oreo 90g Milshake Morango</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 4,59</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5f04453-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Biscoito Doce Sol Dolce Plus 360g Torta De Maçã</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b07d3d52-4f6b-4ee1-af14-acbcc415ac22.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Bisc Polvilho Argola Minastop 90g Parme</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5d10d3f-2026-4d71-8c15-c5be974dc542.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Biscoito Broinha Milho Liane 330g</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd3253ae-07e2-450b-bc7c-f4c3de36837e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Biscoito Polvilho Minas Top 80g Sem Lactose</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/473557e2-bf7b-460f-82a3-2cf937fa50c1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Liane 90gr Morango</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/323c4390-f70b-4eef-b01e-29dbd29a796c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Bisc Polvilho Argolao Minastop 160g Trad</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8325eac2-cf90-455d-b552-515a362900ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Bis Piraque 100,8g Chocolate</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a022ee06-7643-4156-8639-14cb5b40264b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Liane 90g Frutas Vermelhas</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 3,49</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0916a3f7-bba6-41e4-83f1-8e93270bf214.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Morango Liane 115g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/535b40c8-22de-48c8-b49c-4ef9e3d6dbca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Bisc Rech Limao Siciliano Liane 115g</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75e899e5-2b8f-4fd9-bb23-f735090879c9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Bisc Wafer Stick Look 55gr Cookies &amp; Cre</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e59bdd8d-6919-469f-8ebf-843a06c2f76c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Biscoito Tostines 150g Especiarias</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e19917a-f1ef-4036-bf04-bcd77a65793b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Bisc Wafer Bauducco Maxi 104g Choco E Cream</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 4,59</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca1e4904-92bf-4ed3-900a-f5c427831940.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Bisc Polvilho Argolao Minastop 160g Parm</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/821f03f6-0dcd-4fe9-9d33-90651a6d3334.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Biscoito Cookies Charge 60g Com Pedaços De Amendoim</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df32d2fc-266f-4cef-b1cf-35bc3f8de26b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Kid Chocolate 115g</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b76685a9-d730-44fc-84fc-e89c579a3f8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Biscoito Delícia Sete Capas 250g Canela</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/463e30df-a809-45d9-ae66-e759265f39e7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Biscoito Sol Dolce Plus 360g Doce De Leite</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ec25cd-53d7-425f-a526-17acd713316a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Bolacha Delícia Rainha 300g</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/871a4d2b-c0ce-49e3-962e-1ea33167199a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Wafer Atrevidos Look Itamaraty 55gr</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41e6aaf8-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Wafer Look Itamaraty 55g Napolitano</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a7d3a5eb-a784-47e4-a209-41c73dfc262c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Biscoito Piraque 132g Leite Maltado Chocolate Biscoito Piraque 132g Leite Maltado Chocolate</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee7e0e8a-fc73-4542-aaa6-fc1fb84b459e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Panco 112g Red Velvet</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 4,29</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39699e3a-1e28-49fb-8b36-8a0ec499288c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Bisc Broinha Coco Liane 330g</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94f3c1c1-fd77-48fe-80b8-c348a139830e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Bisc Polvilho Palito Minastop 80gr Chimi</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36219fe9-156d-4480-be98-74ffa7773214.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Biscoito Tostines 160g Leite Maltado</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c171ead-3503-4bf4-bad3-1de939bcb64a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Biscoito Oreo Tripack 270g Chocolate</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/220d314c-950b-41db-a1f5-6d30dbfee1b8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Biscoito Piraque 132g Leite Maltado</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b419f7b-c731-47f5-b7ea-0c7a73fdbea5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Tubetes Snack Barion 44gr Paçoca</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/541cbc0a-12f9-4542-b4f0-ebb469103f39.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Biscoito Liane 330g Coco</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 5,59</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c431723-216d-4007-a13d-4c5c5703c17c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Nestlé Charge 130g</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66549726-1e76-46bc-9798-f462ef6d3702.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Biscoito Negresco 200g</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c74322d0-bec0-411d-89bb-703eeaf8e126.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Bisc Especiarias Recheado Tostines 93g Cappuccino</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10e867f4-2685-48d6-a027-d868ee9db0c8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Biscoito Wafer Halloween Panco 112g Frutas Vermelhas</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 4,49</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3209644c-8ed3-49f5-a706-1ef5d0ffb937.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Bolacha Delícia Sete Capas 250g Tradicional</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Rosquinha De Coco Panco 80g Cobertura Chocolate</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82661a97-1297-4400-87dc-3553af61ac51.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Biscoito Recheado Estelar Panco 140g</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 3,29</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8239b327-1c99-4521-950d-19389b835a43.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Biscoito Papita 33g Milky</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7de74e5f-4cd6-4e69-b70a-54c7a9c56415.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Biscoito Papita 33g Morango</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a2bbf78-4d73-4d1d-98bf-f5c66224bebd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Biscoitos doces</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Creme De Avela Com Cacau E Balas Frapella 55g</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7891203061409</t>
         </is>
       </c>
     </row>
